--- a/Schematics/BOMs/Main BOM.xlsx
+++ b/Schematics/BOMs/Main BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24a17f4871900378/Documenten/GitHub/robotMower_TM24/Schematics/BOMs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basbw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{ABE29C01-3852-404B-872C-DA06BF182186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D05B194E-C28D-4D7B-A591-3FB9456C4A6B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFB51E6-90AB-4643-A7F6-6ED6A63550AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A6E9F8A-266D-4918-87D5-86BD9D7295F9}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{6A6E9F8A-266D-4918-87D5-86BD9D7295F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
   <si>
     <t>Value</t>
   </si>
@@ -312,13 +312,70 @@
   </si>
   <si>
     <t>356-EP32S3WROOM1N8R8</t>
+  </si>
+  <si>
+    <t>39mOhm</t>
+  </si>
+  <si>
+    <t>"870575873001"</t>
+  </si>
+  <si>
+    <t>710-870575873001</t>
+  </si>
+  <si>
+    <t>81-RDER71E104K0P1H3B</t>
+  </si>
+  <si>
+    <t>RDER71E104K0P1H03B</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>Würth Elektronik</t>
+  </si>
+  <si>
+    <t>660-MF1/4CCT52R2200F</t>
+  </si>
+  <si>
+    <t>MF1/4CCT52R2200F</t>
+  </si>
+  <si>
+    <t>KOA Speer</t>
+  </si>
+  <si>
+    <t>660-MF1/4LCT52R103G</t>
+  </si>
+  <si>
+    <t>MF1/4LCT52R103G</t>
+  </si>
+  <si>
+    <t>660-MF1/4DCT52R2201F</t>
+  </si>
+  <si>
+    <t>MF1/4DCT52R2201F</t>
+  </si>
+  <si>
+    <t>603-PE1206DRM470R012</t>
+  </si>
+  <si>
+    <t>PE1206DRM470R012L</t>
+  </si>
+  <si>
+    <t>YAGEO</t>
+  </si>
+  <si>
+    <t>603-PE1206DRM470R039</t>
+  </si>
+  <si>
+    <t>PE1206DRM470R039L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,13 +389,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -350,15 +432,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,7 +466,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -690,13 +782,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5988E4C-923E-4723-B8A6-3EF937B71B6F}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -708,48 +800,48 @@
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2">
         <f>SUM(B2:E2)</f>
         <v>14</v>
@@ -778,10 +870,19 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
-        <f t="shared" ref="A3:A26" si="0">SUM(B3:E3)</f>
+        <f t="shared" ref="A3:A8" si="0">SUM(B3:E3)</f>
         <v>8</v>
       </c>
       <c r="B3">
@@ -808,8 +909,17 @@
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -832,8 +942,17 @@
       <c r="I4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -862,8 +981,17 @@
       <c r="I5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="25.5">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -883,17 +1011,26 @@
       <c r="I6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="25.5">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -907,59 +1044,77 @@
       <c r="I7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <f>SUM(B9:E9)</f>
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <f>SUM(B10:E10)</f>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
       </c>
       <c r="G10" t="s">
         <v>60</v>
@@ -968,336 +1123,363 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:E11)</f>
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <f>SUM(B12:E12)</f>
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <f>SUM(B13:E13)</f>
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
         <f>1+2+1</f>
         <v>4</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <f>SUM(B14:E14)</f>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>39</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>40</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <f>SUM(B15:E15)</f>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>42</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>44</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K15" t="s">
         <v>85</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L15" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <f>SUM(B16:E16)</f>
         <v>5</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>28</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>29</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I16" t="s">
         <v>30</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K16" t="s">
         <v>71</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L16" t="s">
         <v>72</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <f>SUM(B17:E17)</f>
         <v>3</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>32</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>33</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K17" t="s">
         <v>79</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <f>SUM(B18:E18)</f>
         <v>3</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>34</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K18" t="s">
         <v>82</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <f>SUM(B19:E19)</f>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
         <v>48</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>48</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K19" t="s">
         <v>89</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <f>SUM(B20:E20)</f>
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>52</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>53</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>54</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K20" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <f>SUM(B21:E21)</f>
         <v>8</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>8</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>55</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>56</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <f>SUM(B22:E22)</f>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>64</v>
-      </c>
-      <c r="G21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
       </c>
       <c r="G22" t="s">
         <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s">
         <v>74</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <f>SUM(B23:E23)</f>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1" display="https://www.mouser.be/manufacturer/koa-speer/" xr:uid="{808889E9-2F7F-4DC8-A446-C02F0CCF63F2}"/>
+    <hyperlink ref="K5" r:id="rId2" display="https://www.mouser.be/manufacturer/koa-speer/" xr:uid="{E790BA8B-1F23-4A35-8CA1-41AE3D1275CA}"/>
+    <hyperlink ref="K6" r:id="rId3" display="https://www.mouser.be/manufacturer/koa-speer/" xr:uid="{63DF2D6B-AA4A-413A-A0E9-FA9F7562CFD9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Schematics/BOMs/Main BOM.xlsx
+++ b/Schematics/BOMs/Main BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basbw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFB51E6-90AB-4643-A7F6-6ED6A63550AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C7678D-330F-44DB-9C34-E7BABB6503B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{6A6E9F8A-266D-4918-87D5-86BD9D7295F9}"/>
+    <workbookView xWindow="14655" yWindow="0" windowWidth="23850" windowHeight="20985" xr2:uid="{6A6E9F8A-266D-4918-87D5-86BD9D7295F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,19 +356,19 @@
     <t>MF1/4DCT52R2201F</t>
   </si>
   <si>
-    <t>603-PE1206DRM470R012</t>
-  </si>
-  <si>
-    <t>PE1206DRM470R012L</t>
-  </si>
-  <si>
     <t>YAGEO</t>
   </si>
   <si>
-    <t>603-PE1206DRM470R039</t>
-  </si>
-  <si>
-    <t>PE1206DRM470R039L</t>
+    <t>PE2512DKE070R04L</t>
+  </si>
+  <si>
+    <t>603-PE2512DKE070R04L</t>
+  </si>
+  <si>
+    <t>667-ERJ-6CWDR012V</t>
+  </si>
+  <si>
+    <t>ERJ-6CWDR012V</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5988E4C-923E-4723-B8A6-3EF937B71B6F}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -1021,7 +1021,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="25.5">
+    <row r="7" spans="1:13">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1045,13 +1045,13 @@
         <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1075,13 +1075,13 @@
         <v>26</v>
       </c>
       <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:13">

--- a/Schematics/BOMs/Main BOM.xlsx
+++ b/Schematics/BOMs/Main BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basbw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C7678D-330F-44DB-9C34-E7BABB6503B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70085B9A-FF30-4058-9E13-2B0754C6CBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14655" yWindow="0" windowWidth="23850" windowHeight="20985" xr2:uid="{6A6E9F8A-266D-4918-87D5-86BD9D7295F9}"/>
   </bookViews>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5988E4C-923E-4723-B8A6-3EF937B71B6F}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1395,7 +1395,10 @@
     <row r="21" spans="1:13">
       <c r="A21">
         <f>SUM(B21:E21)</f>
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
       </c>
       <c r="D21">
         <v>8</v>

--- a/Schematics/BOMs/Main BOM.xlsx
+++ b/Schematics/BOMs/Main BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basbw\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24a17f4871900378/Documenten/GitHub/robotMower_TM24/Schematics/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70085B9A-FF30-4058-9E13-2B0754C6CBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{70085B9A-FF30-4058-9E13-2B0754C6CBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1484FEAC-E423-477A-A4EF-0988E1CD588B}"/>
   <bookViews>
-    <workbookView xWindow="14655" yWindow="0" windowWidth="23850" windowHeight="20985" xr2:uid="{6A6E9F8A-266D-4918-87D5-86BD9D7295F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A6E9F8A-266D-4918-87D5-86BD9D7295F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
   <si>
     <t>Value</t>
   </si>
@@ -89,24 +89,6 @@
     <t>POLARIZED CAPACITOR, European symbol</t>
   </si>
   <si>
-    <t>JST XH 4-PIN</t>
-  </si>
-  <si>
-    <t>JST-XH-04-PIN-LONG-PAD</t>
-  </si>
-  <si>
-    <t>JST-XH-04-PACKAGE-LONG-PAD</t>
-  </si>
-  <si>
-    <t>JST XH 5-PIN</t>
-  </si>
-  <si>
-    <t>JST-XH-05-PIN-LONG-PAD</t>
-  </si>
-  <si>
-    <t>JST-XH-05-PACKAGE-LONG-PAD</t>
-  </si>
-  <si>
     <t>10kOhm</t>
   </si>
   <si>
@@ -155,15 +137,6 @@
     <t>Motor</t>
   </si>
   <si>
-    <t>JST XH 7-PIN</t>
-  </si>
-  <si>
-    <t>JST-XH-07-PIN-LONG-PAD</t>
-  </si>
-  <si>
-    <t>JST-XH-07-PACKAGE-LONG-PAD</t>
-  </si>
-  <si>
     <t>USB_B_PTH</t>
   </si>
   <si>
@@ -185,15 +158,6 @@
     <t>ESP32-S3-WROOM-1</t>
   </si>
   <si>
-    <t>SCHOTTKY-DIODEDO41</t>
-  </si>
-  <si>
-    <t>DO41-10</t>
-  </si>
-  <si>
-    <t>Schottky Diode</t>
-  </si>
-  <si>
     <t>INA219BIDR</t>
   </si>
   <si>
@@ -216,18 +180,6 @@
   </si>
   <si>
     <t>220Ohm</t>
-  </si>
-  <si>
-    <t>LED5MM</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>LED5MM Red</t>
-  </si>
-  <si>
-    <t>LED5MM Green</t>
   </si>
   <si>
     <t>LM1117T-5.0_NOPB</t>
@@ -450,7 +402,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,8 +417,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -782,21 +738,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5988E4C-923E-4723-B8A6-3EF937B71B6F}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -805,16 +761,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -871,18 +827,18 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <f t="shared" ref="A3:A8" si="0">SUM(B3:E3)</f>
+        <f t="shared" ref="A3:A17" si="0">SUM(B3:E3)</f>
         <v>8</v>
       </c>
       <c r="B3">
@@ -910,13 +866,13 @@
         <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -931,25 +887,25 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -970,28 +926,28 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="25.5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="26.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1000,25 +956,25 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1033,25 +989,25 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1063,48 +1019,64 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <f>SUM(B9:E9)</f>
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <f>SUM(B10:E10)</f>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>1+1</f>
         <v>2</v>
       </c>
       <c r="D10">
@@ -1114,366 +1086,223 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <f>SUM(B11:E11)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" t="s">
-        <v>61</v>
+      <c r="L11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <f>SUM(B12:E12)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <f>SUM(B13:E13)</f>
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C13">
-        <f>1+2+1</f>
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <f>SUM(B14:E14)</f>
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H14" t="s">
-        <v>41</v>
+      <c r="M14" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <f>SUM(B15:E15)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" t="s">
-        <v>86</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <f>SUM(B16:E16)</f>
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <f>1+1</f>
-        <v>2</v>
-      </c>
-      <c r="D16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <f>SUM(B17:E17)</f>
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18">
-        <f>SUM(B18:E18)</f>
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19">
-        <f>SUM(B19:E19)</f>
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20">
-        <f>SUM(B20:E20)</f>
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21">
-        <f>SUM(B21:E21)</f>
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22">
-        <f>SUM(B22:E22)</f>
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23">
-        <f>SUM(B23:E23)</f>
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
